--- a/PythonApplication1/Fir.xlsx
+++ b/PythonApplication1/Fir.xlsx
@@ -8,7 +8,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet Copy" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="test" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet Copy" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,26 +17,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
-  <si>
-    <t>Huiiii</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
   <si>
     <t>Hello</t>
   </si>
+  <si>
+    <t>Huiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiii</t>
+  </si>
+  <si>
+    <t>hulllllll</t>
+  </si>
+  <si>
+    <t>zzzzzzzz</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="20"/>
     </font>
   </fonts>
   <fills count="2">
@@ -46,7 +57,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -54,15 +65,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle hidden="0" name="hightlight" xfId="1"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
@@ -360,28 +389,67 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="2" min="2" width="55"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="70" r="4" spans="1:4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="D5:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="n">
-        <v>4</v>
+    <row r="5" spans="1:5">
+      <c r="D5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -389,7 +457,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -401,14 +469,17 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="2" min="2" width="55"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <v>0</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="70" r="4" spans="1:1">
       <c r="A4" t="n">
         <v>4</v>
       </c>
